--- a/medicine/Enfance/Cœur_d'encre_(roman)/Cœur_d'encre_(roman).xlsx
+++ b/medicine/Enfance/Cœur_d'encre_(roman)/Cœur_d'encre_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C5%93ur_d%27encre_(roman)</t>
+          <t>Cœur_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cœur d'encre (titre original : Tintenherz) est un roman allemand pour la jeunesse de Cornelia Funke, paru en 2003 (2004 pour la traduction française). Il est le premier d'une trilogie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C5%93ur_d%27encre_(roman)</t>
+          <t>Cœur_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les personnages principaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Meggie : est la fille de Mo et de Resa. Comme son père, elle a le pouvoir de faire sortir les personnages des histoires en lisant.
 Doigt de Poussière : est un personnage sorti tout droit de Cœur d'encre, un livre fantaisiste écrit par Fenoglio. C'est un cracheur de feu.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C5%93ur_d%27encre_(roman)</t>
+          <t>Cœur_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Meggie, douze ans, vit seule avec son père, Mo. Comme lui, elle a une passion pour les livres. Mais pourquoi Mo ne lit-il plus d'histoires à voix haute ? Ses livres auraient-ils un secret ? Leurs mots auraient-ils un pouvoir ? Un soir, un étrange personnage frappe à leur porte. Alors commence pour Meggie et Mo une extraordinaire aventure. Encore plus folle que celles que racontent les livres. Et leur vie va changer pour toujours. Lire n'a jamais été aussi fascinant, et aussi dangereux !
 </t>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C5%93ur_d%27encre_(roman)</t>
+          <t>Cœur_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornelia Funke, Cœur d'encre, Hachette, collection Romans Aut. Form, 13 octobre 2004  (ISBN 978-2012009097).
 </t>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C5%93ur_d%27encre_(roman)</t>
+          <t>Cœur_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2008 : Cœur d'encre film anglo-germano-américain de Iain Softley</t>
         </is>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C5%93ur_d%27encre_(roman)</t>
+          <t>Cœur_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>La trilogie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cœur d'encre
 Sang d'encre
